--- a/data/case1/18/V1_2.xlsx
+++ b/data/case1/18/V1_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999384391081</v>
+        <v>0.99999999616220903</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99347663803548536</v>
+        <v>0.99385465086959945</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97227015609592249</v>
+        <v>0.9705951338219827</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96249568221152138</v>
+        <v>0.95932253566473369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95313151810542773</v>
+        <v>0.94841558446867635</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.93046737919591027</v>
+        <v>0.92192430631314026</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.92732063941840281</v>
+        <v>0.91532038747726419</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.9242159370822578</v>
+        <v>0.90618172526226748</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.9229182325280807</v>
+        <v>0.89442486940946897</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.92256602938854804</v>
+        <v>0.88358862122698134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.92260785523507871</v>
+        <v>0.88199157713947485</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.91982786345666734</v>
+        <v>0.87921025209988135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.90854020734997842</v>
+        <v>0.86791808166936291</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.90437272501705257</v>
+        <v>0.86374957057094615</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.90178117186218021</v>
+        <v>0.8611574945962357</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.89927463060919477</v>
+        <v>0.85865059278242906</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.8955666548451211</v>
+        <v>0.85494224446020795</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.89445773891326019</v>
+        <v>0.85383329852041312</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.98822702555059516</v>
+        <v>0.99207550873720396</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.95600336654374396</v>
+        <v>0.97847723725522229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.94695600882256037</v>
+        <v>0.97707871981300887</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.93165572838395749</v>
+        <v>0.97581420879155256</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.9652344871169507</v>
+        <v>0.9635592952092259</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95221272295768267</v>
+        <v>0.95053736565312308</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94575558115005298</v>
+        <v>0.94408018925236981</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.92784027657971335</v>
+        <v>0.92003212954000435</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9244272336221635</v>
+        <v>0.91764487755063151</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.90944661341948008</v>
+        <v>0.90723332250367172</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.89899681939129961</v>
+        <v>0.90019696849852493</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.89242648485342513</v>
+        <v>0.89787105634329145</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.88477273678409951</v>
+        <v>0.90062798365726815</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.88309341485297499</v>
+        <v>0.89894864066997182</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.88257340706466825</v>
+        <v>0.89842862309220528</v>
       </c>
     </row>
   </sheetData>
